--- a/data/577 Projects/2015-2016/file list.xlsx
+++ b/data/577 Projects/2015-2016/file list.xlsx
@@ -37,7 +37,7 @@
     <t>~\577 projects\fall2015\projects\team01\team01b\Development\RCP</t>
   </si>
   <si>
-    <t>Example.</t>
+    <t>This is an exampke for the things to fill. The URL should be point to the folder where the LCP, SSAD, OCD are found.</t>
   </si>
 </sst>
 </file>
@@ -411,13 +411,13 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/577 Projects/2015-2016/file list.xlsx
+++ b/data/577 Projects/2015-2016/file list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,23 +276,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -328,23 +311,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,7 +490,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
